--- a/webscrapping school/sextoys/navigation_links.xlsx
+++ b/webscrapping school/sextoys/navigation_links.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
-    <t xml:space="preserve">Link</t>
+    <t xml:space="preserve">link</t>
   </si>
   <si>
     <t xml:space="preserve">https://veneria.pl/11-wibratory</t>
@@ -98,11 +98,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,6 +119,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,8 +168,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,128 +307,128 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/webscrapping school/sextoys/navigation_links.xlsx
+++ b/webscrapping school/sextoys/navigation_links.xlsx
@@ -124,6 +124,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -307,7 +308,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
